--- a/biology/Histoire de la zoologie et de la botanique/Alexander_Garden/Alexander_Garden.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexander_Garden/Alexander_Garden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Garden est un médecin, naturaliste et botaniste écossais, né en janvier 1730 à Birse, à Aberdeenshire, en Écosse et mort le 15 avril 1791 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine au Marischal College d’Aberdeen puis à l’université d’Édimbourg où il se passionne pour la botanique grâce aux enseignements de Charles Alston (1683-1760).
 Il est médecin dans la marine de 1748 à 1750. Il obtient son doctorat en 1753 et part la même année s’installer en Caroline du Sud, de 1755 à 1783, il est médecin à Charleston.
@@ -547,9 +561,11 @@
           <t>Gardénia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gardénia lui est dédié[1], nommé ainsi par Carl von Linné pour lui. Garden lui enverra par la suite une grande quantité de spécimens de gardénia de la Caroline.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gardénia lui est dédié, nommé ainsi par Carl von Linné pour lui. Garden lui enverra par la suite une grande quantité de spécimens de gardénia de la Caroline.
 </t>
         </is>
       </c>
